--- a/INPUT_PREPARATION/result_input/KJE0008/KJE0008_concatenated_file_plate_A.xlsx
+++ b/INPUT_PREPARATION/result_input/KJE0008/KJE0008_concatenated_file_plate_A.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -4318,2955 +4318,2955 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GAGTTTTATCGCTTCCATGACGCAGAAGTTAACACTTTCGGATATTTCTGATGAG</t>
+          <t>GCGTTAACCGTGCGGAAGCAGAGGCAGTCAGTATGCTGGT</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-1</t>
+          <t>P177A_F</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>ZKF</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>GCAGTAGTAATTCCTGCTTTATCAAGATAATTTTTCGACTCATCAGAAATATCCGAAAGTGT</t>
+          <t>GCCTCTGCTTCCGCACGGTTAACGCACGAGACCAGGTCCT</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-2</t>
+          <t>P177A_R</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>ZKF</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TGATAAAGCAGGAATTACTACTGCTTGTTTACGAATTAAATCGAAGTGGACTGCTGG</t>
+          <t>ATTCTGAGAAATTGGGTCAGCAGGAAGGTAAAGGTTGGAA</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-3</t>
+          <t>S291L_F</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>ZKF</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AGGATAGGTCGAATTTTCTCATTTTCCGCCAGCAGTCCACTTCGATT</t>
+          <t>TCCTGCTGACCCAATTTCTCAGAATGAACACGACCGTGAT</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-4</t>
+          <t>S291L_R</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>ZKF</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AAAATGAGAAAATTCGACCTATCCTTGCGCAGCTCGAGAAGCTCTTACTTTGCGACCTTTCG</t>
+          <t>TGGCGGAAAACTACGAATTGCGTGAAAATGAAGGCTCGTG</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-5</t>
+          <t>D50Y_F</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>ZKF</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>TCAGTTTTTGACAGAATCGTTAGTTGATGGCGAAAGGTCGCAAAGTAAGAG</t>
+          <t>TCACGCAATTCGTAGTTTTCCGCCAGGATGTCGAGGGCAT</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-6</t>
+          <t>D50Y_R</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>ZKF</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ACTAACGATTCTGTCAAAAACTGACGCGTTGGATGAGGAGAAGTGGCTTAATATG</t>
+          <t>GCCCTTGACTGCAAGTGCAAAGGTTGAGGAATCCGCTTCAGACTCAAACGCAGACG</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-7</t>
+          <t>KITV-S1-5-F</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ATCTAAACCAGTCCTTGACGAACGTGCCAAGCATATTAAGCCACTTCTCCTCATC</t>
+          <t>CGTGTTTCTTACGACTATCTGTCTTGTTGTTGTTTCGTCTGCGTTTGAGTCTGAAG</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-8</t>
+          <t>KITV-S1-5-R</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>TTCGTCAAGGACTGGTTTAGATATGAGTCACATTTTGTTCATGGT</t>
+          <t>GCCCTTGACTGCAAGTGCAA</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-9</t>
+          <t>f-KITV-S1-5</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ACGCTCTTTTAAAATGTCAACAAGAGAATCTCTACCATGAACAAAATGTGACTCAT</t>
+          <t>TAATACGACTCACTATAGGGCCCTTGACTGCAAGTG</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-10</t>
+          <t>T7-KITV-S1-5-F</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>CTTGTTGACATTTTAAAAGAGCGTGGATTACTATCTGAGTCCGATGCTGTTC</t>
+          <t>TAATACGACTCACTATAGGGCCCTT</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-11</t>
+          <t>f-T7-KITV-S1-5</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CTCATGATTTCTTACCTATTAGTGGTTGAACAGCATCGGACTCAGAT</t>
+          <t>CGTGTTTCTTACGACTATCTGTCTTGTTG</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-12</t>
+          <t>r-KITV-S1-5</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ACCACTAATAGGTAAGAAATCATGAGTCAAGTTACTGAACAATCCGTACGTTTCC</t>
+          <t>AGGCTGATCACACCTACACTAAACACACACAGACACGTTAGAGTAGAGCGCCCTG</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-13</t>
+          <t>KITV-S1-3-F1</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AATAGAGGCCAAAGCGGTCTGGAAACGTACGGATTGTTCAG</t>
+          <t>GTGTACGGTGGCGCTAACACCGCAACCTGGTTTTTCCAGGGCGCTCTACTCTAACG</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-14</t>
+          <t>KITV-S1-3-R</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>GACCGCTTTGGCCTCTATTAAGCTCATTCAGGCTTCTGCCGTTTTGGATTTAACCG</t>
+          <t>GTGTTAGCGCCACCGTACACGAACACGACAAAACTGAATTGGGGGAAAAAGTAAAA</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-15</t>
+          <t>KITV-S1-3-F2</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TGTTACTCGTCAGAAAATCGAAATCATCTTCGGTTAAATCCAAAACGGCA</t>
+          <t>AGGCTGATCACACCTACACT</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-16</t>
+          <t>f-KITV-S1-3</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ATTTCGATTTTCTGACGAGTAACAAAGTTTGGATTGCTACTGACCGC</t>
+          <t>TTTTACTTTTTCCCCCAATTCAGTT</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-17</t>
+          <t>r-KITV-S1-3</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ACCATAAACGCAAGCCTCAACGCAGCGACGAGCACGAGAGCGGTCAGTAGCAATCCAA</t>
+          <t>TAATACGACTCACTATAGGAGGCTGATCACACCTACACT</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-18</t>
+          <t>T7-KITV-S1-3-F</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>TGAGGCTTGCGTTTATGGTACGCTGGACTTTGTGGGATACCCTC</t>
+          <t>TAATACGACTCACTATAGGAGGCT</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-19</t>
+          <t>f-T7-KITV-S1-3</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AATGACGGCAGCAATAAACTCAACAGGAGCAGGAAAGCGAGGGTATCCCACAAAGTCC</t>
+          <t>GCCGGTGGCAAGTGCATACATCGACAACGAATACCGCTGACTCCCCAAGGAAGT</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-20</t>
+          <t>KITV-S2-5-F1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>GAGTTTATTGCTGCCGTCATTGCTTATTATGTTCATCCCGTCAA</t>
+          <t>TCCTTTCCCCAACTTGCTTCAGGACAAATCCTTACTTCCTTGGGGAGTCAGCG</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-21</t>
+          <t>KITV-S2-5-R1</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>GATGAGACAGGCCGTTTGAATGTTGACGGGATGAACATAATAAGC</t>
+          <t>GAAGCAAGTTGGGGAAAGGAAAAAAAACAACAAAAAAGAACAAAAAAAATAGAGAA</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-22</t>
+          <t>KITV-S2.1-5-F2</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>TCAAACGGCCTGTCTCATCATGGAAGGCGCTGAATTTACGGA</t>
+          <t>GAAGCAAGTTGGGGAAAGGAAAAAAAACAACAAATAAGAACAAAAAAAATAGAGAA</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-23</t>
+          <t>KITV-S2.2-5-F2</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ACGCTCGACGCCATTAATAATGTTTTCCGTAAATTCAGCGCCTT</t>
+          <t>TTGCCATTCTTGTCTTGTCTTAGCAGTTTCTTTCTCTATTTTTTTTGTTCT</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-24</t>
+          <t>KITV-S2-5-R2</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>TTATTAATGGCGTCGAGCGTCCGGTTAAAGCCGCTGAATTGTTCGCGTTTACCT</t>
+          <t>GCCGGTGGCAAGTGCATACA</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-25</t>
+          <t>f-KITV-S2-5</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>GTAAGAACGTCAGTGTTTCCTGCGCGTACACGCAAGGTAAACGCGAACAATTCAG</t>
+          <t>TTGCCATTCTTGTCTTGTCTTAGCAGT</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-26</t>
+          <t>r-KITV-S2-5</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>CAGGAAACACTGACGTTCTTACTGACGCAGAAGAAAACGTGCGTCAAAAATTACGTGCGGA</t>
+          <t>TAATACGACTCACTATAGGGCCGGTGGCAAGTGCATACA</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-27</t>
+          <t>T7-KITV-S2-5-F</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AACGTTTTTTACCTTTAGACATTACATCACTCCTTCCGCACGTAATTTTTGACG</t>
+          <t>TAATACGACTCACTATAGGGCCGG</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-28</t>
+          <t>f-T7-KITV-S2-5</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ATGTAATGTCTAAAGGTAAAAAACGTTCTGGCGCTCGCCCTGGTCGTCCGCAGCCGTT</t>
+          <t>GCTCCTTACACAAAGGCGGGAACGGAGACCGACCCAGGAAAGGTATCGGACACTCGAACA</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-29</t>
+          <t>KITV-S2.1-3-F1</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>GCCTTTACGCTTGCCTTTAGTACCTCGCAACGGCTGCGGACGACCAG</t>
+          <t>GCTCCTTACACAAAGGCGGGAACGGAGACCGACCCAGGAAAGGCATCGGACACCCGAACA</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-30</t>
+          <t>KITV-S2.2-3-F1</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>CTAAAGGCAAGCGTAAAGGCGCTCGTCTTTGGTATGTAGGTGGTCAACAAT</t>
+          <t>AGGTTGAAAAAGGTAGGTGCATTTCTGATGGGTGCGTTCCGTGTTCGAGTGTCCGATACCT</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-31</t>
+          <t>KITV-S2.1-3-R1</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>CTCAAGTAAGGGGCCGAAGCCCCTGCAATTAAAATTGTTGACCACCTACATACCA</t>
+          <t>AGATTGAAAAAGGTAGGTGCATTTCTGATGGGTGCGTTCCGTGTTCGGGTGTCCGATGCCT</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-32</t>
+          <t>KITV-S2.2-3-R1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>CTTCGGCCCCTTACTTGAGGATAAATTATGTCTAATATTCAAACTGGCGC</t>
+          <t>GCACCTACCTTTTTCAACCTTTTGTTCTACCCTTTTTTGTTTAATTTCTTTTCCCCTCTTC</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-33</t>
+          <t>KITV-S2.1-3-F2</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AGATGGGAAAGGTCATGCGGCATACGCTCGGCGCCAGTTTGAATATTAGACA</t>
+          <t>GCACCTACCTTTTTCAATCTTTTGTTCTACCCTTTTTTGTTTAATTTCTTTTCCCCTCTTC</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-34</t>
+          <t>KITV-S2.2-3-F2</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CGCATGACCTTTCCCATCTTGGCTTCCTTGCTGGTCAGAT</t>
+          <t>ATAAGATAGAGCTCCCTCTAACCCCCAGGCCAGTAGGTGGGGAAGAGGGGAAAAGAAATTA</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-35</t>
+          <t>KITV-S2-3-R2</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>GATAACCGGAGTAGTTGAAATGGTAATAAGACGACCAATCTGACCAGCAAGGAAGC</t>
+          <t>TAGAGGGAGCTCTATCTTATGCTATGACGCCCGGGAAACCGGTTATGGCCGCATGCGTCAC</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-36</t>
+          <t>KITV-S2-3-F3</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>CCATTTCAACTACTCCGGTTATCGCTGGCGACTCCTTCGAGATGGAC</t>
+          <t>ATGCTTAGGTTTTTTCCTTTTTTTGTGTTTTTTTATTGGCCGTGACGCATGCGGCCATAAC</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-37</t>
+          <t>KITV-S2-3-R3</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AATGGAGAAAGACGGAGAGCGCCAACGGCGTCCATCTCGAAGGAGTCG</t>
+          <t>AAAGGAAAAAACCTAAGCATAGAAAGCTCCCAACCGATCCTCCATATGGCTGGCAAGTGCT</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-38</t>
+          <t>KITV-S2-3-F4</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>GCTCTCCGTCTTTCTCCATTGCGTCGTGGCCTTGCTATTGACTCTACT</t>
+          <t>CCCTTCCGGATCCTCCTAGCTCACCCCACTCACTTGAGGGGGCTTTAGCACTTGCCAGCCATATG</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-39</t>
+          <t>KITV-S2-3-R4</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>GACGATGAGGGACATAAAAAGTAAAAATGTCTACAGTAGAGTCAATAGCAAGGCC</t>
+          <t>GCTCCTTACACAAAGGCGGG</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-40</t>
+          <t>f-KITV-S2-3</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>TTACTTTTTATGTCCCTCATCGTCACGTTTATGGTGAACAGTGGATT</t>
+          <t>CCCTTCCGGATCCTCCTAGC</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-41</t>
+          <t>r-KITV-S2-3</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>GTGGCATTAACACCATCCTTCATGAACTTAATCCACTGTTCACCATAAACG</t>
+          <t>TAATACGACTCACTATAGGGCTCCTTACACAAAGGCGGG</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-42</t>
+          <t>T7-KITV-S2-3-F</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>GAAGGATGGTGTTAATGCCACTCCTCTCCCGACTGTTAACACTACTGGT</t>
+          <t>TAATACGACTCACTATAGGGCTCCTTACAC</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-43</t>
+          <t>f-T7-KITV-S2-3</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>GAAAAGCGGCATGGTCAATATAACCAGTAGTGTTAACAGTCGG</t>
+          <t>GACTGCAAGTGCACAGGTTTTGGACCTCGCGCTAGACTCACTTTACAGACTAGAATTGTGAATAG</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-44</t>
+          <t>KITV-S3-5-F</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ATATTGACCATGCCGCTTTTCTTGGCACGATTAACCCTGAT</t>
+          <t>TTGAAGTTCTCAACAATCGCTTGTAAGTTTTTTTTCCTTTCTTTCCTATTCACAATTCTAGTCTG</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-45</t>
+          <t>KITV-S3.1-5-R</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CAAATAACCCTGAAACAAATGCTTAGGGATTTTATTGGTATCAGGGTTAATCGTGCCAA</t>
+          <t>TTAAAGTTCTCAACAATCGTTTGTAAGTTTTTTTTCTATTCACAATTCTAGTCTG</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-46</t>
+          <t>KITV-S3.2-5-R</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>AAGCATTTGTTTCAGGGTTATTTGAATATCTATAACAACTATTTTAAAGCGCCGTGG</t>
+          <t>GACTGCAAGTGCACAGGTTT</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-47</t>
+          <t>f-KITV-S3-5</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>CCACGGCGCTTTAAAATAGTT</t>
+          <t>TTGAAGTTCTCAACAATCGCTTGTAAGT</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1-48</t>
+          <t>r-KITV-S3.1-5</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ACTATTTTAAAGCGCCGTGGATGCCTGACCGTACCGAGGCTAACCCTAATGAGCTT</t>
+          <t>TTAAAGTTCTCAACAATCGTTTGTAAGT</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-1</t>
+          <t>r-KITV-S3.2-5</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>CCATAACGAGCATCATCTTGATTAAGCTCATTAGGGTTAGCCTC</t>
+          <t>TAATACGACTCACTATAGGGACTGCAAGTGCACAGGTTT</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-2</t>
+          <t>T7-KITV-S3-5-F</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AATCAAGATGATGCTCGTTATGGTTTCCGTTGCTGCCATCTCAAAAACATTTGGA</t>
+          <t>TAATACGACTCACTATAGGGACTG</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-3</t>
+          <t>f-T7-KITV-S3-5</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>GAAAGCTCAGTCTCAGGAGGAAGCGGAGCAGTCCAAATGTTTTTGAGATGGCA</t>
+          <t>GCCGCGCTTAGGTGACCACATGGAAACGACCCGGACCGTTAGACGGAACAAAGGACAAGG</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-4</t>
+          <t>KITV-S3.1-3-F1</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>CCTCCTGAGACTGAGCTTTCTCGCCAAATGACGACTTCTACCACATCT</t>
+          <t>GTTGCGCTTACGTGACCACACGGAAACGACCCGGACCGTTAGACGGAACAAAGGACAAGG</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-5</t>
+          <t>KITV-S3.2-3-F1</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>AGCATAAGCAGCTTGCAGACCCATAATGTCAATAGATGTGGTAGAAGTCGTCATT</t>
+          <t>GTCATTGCTAGGGCGCCAGTGTTTGTCTTGAACTTGTGATCCTTGTCCTTTGTTCCGTCT</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-6</t>
+          <t>KITV-S3-3-R1</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>TCTGCAAGCTGCTTATGCTAATTTGCATACTGACCAAGAACGTGATTACTTCATG</t>
+          <t>ACTGGCGCCCTAGCAATGACTAGGTTGCGGCAAGCGCCACCGCAAACAAAAAAATAGAAAAAA</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-7</t>
+          <t>KITV-S3-3-F2</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>TTTACCTCCAAATGAAGAAATAACATCATGGTAACGCTGCATGAAGTAATCACGTTCTTGGT</t>
+          <t>TTCGGTCGCTTCAACTACAGACTTTTATGTTCCATTTTTTCTATTTTTTTGTTT</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-8</t>
+          <t>KITV-S3.1-3-R2</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>GATGTTATTTCTTCATTTGGAGGTAAAACCTCTTATGACGCTGACAACCGTC</t>
+          <t>GCCGCGCTTAGGTGACCA</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-9</t>
+          <t>f-KITV-S3.1-3</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AGAGATTAGAGCGCATGACAAGTAAAGGACGGTTGTCAGCGTCATA</t>
+          <t>GTTGCGCTTACGTGACCACA</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-10</t>
+          <t>f-KITV-S3.2-3</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>TTGTCATGCGCTCTAATCTCTGGGCATCTGGCTATGATGTTGATGGA</t>
+          <t>TTCGGTCGCTTCAACTACAGACTTTTATG</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-11</t>
+          <t>r-KITV-S3.1-3</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>AACTGGCCTAACGACGTTTGGTCAGTTCCATCAACATCATAGCCAGAT</t>
+          <t>TTTTTTCTATTTTTTTGTTTGCGGTGGCG</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-12</t>
+          <t>r-KITV-S3.2-3</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>AAACGTCGTTAGGCCAGTTTTCTGGTCGTGTTCAACAGACC</t>
+          <t>TAATACGACTCACTATAGGGCCGCGCTTAGGTGACCA</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-13</t>
+          <t>T7-KITV-S3.1-3-F</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>CAGGAACAAAGAAACGCGGCACAGAATGTTTATAGGTCTGTTGAACACGACCA</t>
+          <t>TAATACGACTCACTATAGGGTTGCGCTTACGTGACCACA</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-14</t>
+          <t>T7-KITV-S3.2-3-F</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>CCGCGTTTCTTTGTTCCTGAGCATGGCACTATGTTTACTCTTGCGCTTGTTCGT</t>
+          <t>TAATACGACTCACTATAGGGCCGC</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-15</t>
+          <t>f-T7-KITV-S3.1-3</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ATCTCTTTAGTCGCAGTAGGCGGAAAACGAACAAGCGCAAGAGTA</t>
+          <t>TAATACGACTCACTATAGGGTTGCGC</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-16</t>
+          <t>f-T7-KITV-S3.2-3</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>GCCTACTGCGACTAAAGAGATTCAGTACCTTAACGCTAAAGGTGCTTTGACTTAT</t>
+          <t>CTCTGAGTTGCAAGTGCTATAGCTCGGAATCCCGTCGCAGACTCAATCGAACGAAAC</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-17</t>
+          <t>KITV-S4-5-F1</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>TACAAAACAGGGTCGCCAGCAATATCGGTATAAGTCAAAGCACCTTTAGCG</t>
+          <t>TAGCAGTAGTTGCAGAGCTGGTTTTGCTATTTGGAGTGTTTCGTTCGATTGAGTCTG</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-18</t>
+          <t>KITV-S4.1-5-R</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CTGGCGACCCTGTTTTGTATGGCAACTTGCCGCCGCGTGAAATTTCTATGAAGGA</t>
+          <t>TAGCAATAGTTGCAGAGCTGGTTTTGCTATTTGGAGTGTTTCGTTCGATTGAGTCTG</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-19</t>
+          <t>KITV-S4.2-5-R</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TCTTAAACTTCTTAGACGAATCACCAGAACGGAAAACATCCTTCATAGAAATTTCACGCG</t>
+          <t>CAGCTCTGCAACTACTGCTAGAGACAGACGGATTTGTGGGAGTACCAACAACAACA</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-20</t>
+          <t>KITV-S4.1-5-F2</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>GGTGATTCGTCTAAGAAGTTTAAGATTGCTGAGGGTCAGTGGTATCGT</t>
+          <t>CAGCTCTGCAACTATTGCTAGAGACAGACGGATTTGTGGGAGTACCAACAACAACA</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-21</t>
+          <t>KITV-S4.2-5-F2</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>AGAAACATACGAAGGCGCATAACGATACCACTGACCCTCA</t>
+          <t>CTCTGAGTTGCAAGTGCTATAG</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-22</t>
+          <t>f-KITV-S4-5</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TGCGCCTTCGTATGTTTCTCCTGCTTATCACCTTCTTGAAGGCTTCCCATTCAT</t>
+          <t>TGTTGTTGTTGGTACTCCCA</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-23</t>
+          <t>r-KITV-S4-5</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ACGCGTTCTTGCAAATCACCAGAAGGCGGTTCCTGAATGAATGGGAAGCCTTCAAGA</t>
+          <t>TAATACGACTCACTATAGGCTCTGAGTTGCAAGTGCTATAG</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-24</t>
+          <t>T7-KITV-S4-5-F</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>GTGATTTGCAAGAACGCGTACTTATTCGCCACCATGATTATG</t>
+          <t>TAATACGACTCACTATAGGCTCTGAG</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-25</t>
+          <t>f-T7-KITV-S4-5</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>AACTGAACGGACTGGAAACACTGGTCATAATCATGGTGGCGAATAAGT</t>
+          <t>GGGGTTTCGTTCACGCCGGAAAAGACGAAAAACAAACCCATCCCCGCTAGCAGCGGCGG</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-26</t>
+          <t>KITV-S4-3-F1</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>TGTTTCCAGTCCGTTCAGTTGTTGCAGTGGAATAGTCAGGTTAAATTTAATGTGACCGT</t>
+          <t>CGTAGTGTTCCGTTTCCTGCAGCTCCGCGGCCCCATTCCCCGCCGCTGCTAGCGGGGAT</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-27</t>
+          <t>KITV-S4-3-R1</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CATGATTGAATCGCGAGTGGTCGGCAGATTGCGATAAACGGTCACATTAAATTTAACCTGA</t>
+          <t>GCAGGAAACGGAACACTACGCCCCCAAGGGGGTTGCGGAGGTAGCGTAACCGCACAAAA</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-28</t>
+          <t>KITV-S4-3-F2</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>CCACTCGCGATTCAATCATGACTTCGTGATAAAAGATTGAGTGTGAGGTTAT</t>
+          <t>TCCGGAGAAGACGATTTTTGTGCCACTTTTTATTTCTTTTTTTGTGCGGTTACGCTACC</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-29</t>
+          <t>KITV-S4-3-R2</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CTCAGCGGCAAAAATTAAAATTTTTACCGCTTCGGCGTTATAACCTCACACTCAATCTTTTATCA</t>
+          <t>CAAAAATCGTCTTCTCCGGATCGGAGCATGGAGATGGCAAGTGCTTACAGGGGCCTCAA</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-30</t>
+          <t>KITV-S4-3-F3</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>AAAAATTTTAATTTTTGCCGCTGAGGGGTTGACCAAGCGAAGCGCGGTAGGTTTTCT</t>
+          <t>TCCGGAGTATGGAACGAGATCAGGGCACTCACTTGAGGCCCCTGTAAGCACT</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-31</t>
+          <t>KITV-S4-3-R3</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AAGTCTGAAACATGATTAAACTCCTAAGCAGAAAACCTACCGCGCTTC</t>
+          <t>GGGGTTTCGTTCACGCCGGA</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-32</t>
+          <t>f-KITV-S4-3</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>AGGAGTTTAATCATGTTTCAGACTTTTATTTCTCGCCATAATTCAAACTTTTT</t>
+          <t>TCCGGAGTATGGAACGAGATCAGGG</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-33</t>
+          <t>r-KITV-S4-3</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ACAGAAGTGAGAACCAGCTTATCAGAAAAAAAGTTTGAATTATGGCGAGAAA</t>
+          <t>TAATACGACTCACTATAGGGGGGTTTCGTTCACGCCGGA</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-34</t>
+          <t>T7-KITV-S4-3-F</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ATAAGCTGGTTCTCACTTCTGTTACTCCAGCTTCTTCGGCACCTGTTTTACA</t>
+          <t>TAATACGACTCACTATAGGGGGGTTTCGTTC</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-35</t>
+          <t>f-T7-KITV-S4-3</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>GTTGACGATGTAGCTTTAGGTGTCTGTAAAACAGGTGCCGAAGA</t>
+          <t>ATGGCGAGCAACTTTACCCAGTTTGTGCTGGTGGATAACGGCGGCACCGGCGATGTG</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-36</t>
+          <t>MS2-F1</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CACCTAAAGCTACATCGTCAACGTTATATTTTGATAGTTTGACGGTTAATGCTGGTAATG</t>
+          <t>CCGCCACGCCGTTCGCAAAGTTGCTCGGCGCCACGGTCACATCGCCGGTGCCGCCGT</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-37</t>
+          <t>MS2-R1</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ATGTATCCATCTGAATGCAATGAAGAAAACCACCATTACCAGCATTAACCGTCAA</t>
+          <t>CTTTGCGAACGGCGTGGCGGAATGGATTAGCAGCAACAGCCGCAGCCAGGCGTATAA</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-38</t>
+          <t>MS2-F2</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>TTCATTGCATTCAGATGGATACATCTGTCAACGCCGCTAATCAGGTTGTTTCTG</t>
+          <t>GTTCTGCGCGCTGCTCTGGCGCACGCTGCAGGTCACTTTATACGCCTGGCTGCGGCT</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-39</t>
+          <t>MS2-R2</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>GGTCGGCATCAAAAGCAATATCAGCACCAACAGAAACAACCTGATTAGCGG</t>
+          <t>GCCAGAGCAGCGCGCAGAACCGCAAATATACCATTAAAGTGGAAGTGCCGAAAGTGG</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-40</t>
+          <t>MS2-F3</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ATATTGCTTTTGATGCCGACCCTAAATTTTTTGCCTGTTTGGTTCG</t>
+          <t>GCCACCGGCAGTTCCACGCCGCCCACGGTCTGGGTCGCCACTTTCGGCACTTCCACT</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-41</t>
+          <t>MS2-R3</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CGGAACCGAAGAAGACTCAAAGCGAACCAAACAGGCAAAAAATT</t>
+          <t>GGCGTGGAACTGCCGGTGGCGGCGTGGCGCAGCTATCTGAACATGGAACTGACCATT</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-42</t>
+          <t>MS2-F4</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>TTGAGTCTTCTTCGGTTCCGACTACCCTCCCGACTGCCTATGATGTTTATCCTTT</t>
+          <t>CAATCAGTTCGCAATCGCTGTTGGTCGCAAAAATCGGAATGGTCAGTTCCATGTTCA</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-43</t>
+          <t>MS2-R4</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>AATAACCACCATCATGGCGACCATTCAAAGGATAAACATCATAGGCAGTC</t>
+          <t>CAGCGATTGCGAACTGATTGTGAAAGCGATGCAGGGCCTGCTGAAAGATGGCAACCC</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-44</t>
+          <t>MS2-F5</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>TCGCCATGATGGTGGTTATTATACCGTCAAGGACTGTGTG</t>
+          <t>ATAAATGCCGCTGTTCGCCGCAATCGCGCTCGGAATCGGGTTGCCATCTTTCAGCAG</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-45</t>
+          <t>MS2-R5</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>CACACAGTCCTTGACGGTAT</t>
+          <t>ATGGCGAGCAACTTTACCCAGT</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2-46</t>
+          <t>f-MS2</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>TACCGTCAAGGACTGTGTGACTATTGACGTCCTTCCCCG</t>
+          <t>CACCATGGCGAGCAACTTTACC</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-1</t>
+          <t>f-cacc-MS2</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>AACATAAACGTTATTGCCCGGCGTACGGGGAAGGACGTCAATAG</t>
+          <t>ATAAATGCCGCTGTTCGCCG</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-2</t>
+          <t>r-MS2</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>CCGGGCAATAACGTTTATGTTGGTTTCATGGTTTGGTCTAACTTTAC</t>
+          <t>CACCAGCGGTCCGTCGCCGCCTTT</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-3</t>
+          <t>1fl_HSTV2_F_CACC</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>GATTCAGCGAAACCAATCCGCGGCATTTAGTAGCGGTAAAGTTAGACCAAACCATGAAAC</t>
+          <t>AGCGGTCCGTCGCCGCCTTT</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-4</t>
+          <t>1fl_HSTV2_F</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>CGGATTGGTTTCGCTGAATCAGGTTATTAAAGAGATTATTTGTCTCCAGCCACTTAAGT</t>
+          <t>AGCGGTCCGTCGCCGCCTTTACCGGCGGCGGGCGCCACCTGCTACCTGATTCGTGATGGCGCGCAC</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-5</t>
+          <t>1HSTV2_F</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>AATAGCACCAAACATAAATCACCTCACTTAAGTGGCTGGAGACAAA</t>
+          <t>GAGTGCGCAGCCAGTTTAAGCAGCCGGTATCTCCGCGCTTAATGACGTGCGCGCCATCACGAATCA</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-6</t>
+          <t>1HSTV2_R</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>AGGTGATTTATGTTTGGTGCTATTGCTGGCGGTATTGCTTCTGCTCTTGC</t>
+          <t>GAGTGCGCAGCCAGTTTAAG</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-7</t>
+          <t>1fl_HSTV_R</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>TGACCGCCTCCAAACAATTTAGACATGGCGCCACCAGCAAGAGCAGAAGCAATACC</t>
+          <t>CTTAAACTGGCTGCGCACTC</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-8</t>
+          <t>2fl_HSTV2_F</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>AATTGTTTGGAGGCGGTCAAAAAGCCGCCTCCGGTGGCATTCAAGGTGATGTG</t>
+          <t>CTTAAACTGGCTGCGCACTCAAGACAAAGACTGTCCCAATGCAATCCTGTCATACCACCATGACCG</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-9</t>
+          <t>2HSTV2_F</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>CATCACCCATGCCTACAGTATTGTTATCGGTAGCAAGCACATCACCTTGAATGCCAC</t>
+          <t>GAGTTCGCTAATGGTCGCGGTCTGGCCGGCGCAAATAACATGTTTCCGGTCATGGTGGTATGACAG</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-10</t>
+          <t>2HSTV2_R</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ATACTGTAGGCATGGGTGATGCTGGTATTAAATCTGCCATTCAAGGCTCTAATGTTCC</t>
+          <t>GAGTTCGCTAATGGTCGCGG</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-11</t>
+          <t>2fl_HSTV2_R</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>GCACCAGAAACAAAACTAGGGGCGGCCTCATCAGGGTTAGGAACATTAGAGCCTTGAATGG</t>
+          <t>CCGCGACCATTAGCGAACTC</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-12</t>
+          <t>3fl_HSTV2_F</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CCCTAGTTTTGTTTCTGGTGCTATGGCTAAAGCTGGTAAAGGACTTC</t>
+          <t>CCGCGACCATTAGCGAACTCATCGCAGATGTTAGCGATGTGGTATCCGGCGAGGGAGCTTCTGCCG</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-13</t>
+          <t>3HSTV2_F</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>GCCTGCAACGTACCTTCAAGAAGTCCTTTACCAGCTTTAGC</t>
+          <t>AGGGCCGTTTTGGTGATGTTCAGGGCCGCTTTGCCCGCTGCCTCCACGGCAGAAGCTCCCTCGCCG</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-14</t>
+          <t>3HSTV2_R</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>TTGAAGGTACGTTGCAGGCTGGCACTTCTGCCGTTTCTGATAAGTTGCTT</t>
+          <t>AGGGCCGTTTTGGTGATGTT</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-15</t>
+          <t>3fl_HSTV2_R</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>GACTTGCCACCAAGTCCAACCAAATCAAGCAACTTATCAGAAACGGC</t>
+          <t>GAACATCACCAAAACGGCCC</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-16</t>
+          <t>4fl_HSTV2_F</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>TTGGACTTGGTGGCAAGTCTGCCGCTGATAAAGGAAAGGATACTCGTG</t>
+          <t>GAACATCACCAAAACGGCCCTTCTACGTGCCAAGGAAAAATTTTTCAAAACGAAAAATTTTTTCG</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-17</t>
+          <t>4HSTV2_F</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>GGAAATGCAGCAGCAAGATAATCACGAGTATCCTTTCCTTTATCAG</t>
+          <t>ACACCCGCACTGGCGTTGACATAGCTTTCGAAAAAATTTTTCGTTTTGAAAAATTTTTCC</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-18</t>
+          <t>4HSTV2_R</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>TTATCTTGCTGCTGCATTTCCTGAGCTTAATGCTTGGGAGCG</t>
+          <t>ACACCCGCACTGGCGTTGAC</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-19</t>
+          <t>4fl_HSTV2_R</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CATACCAGCAGAGGAAGCATCAGCACCAGCACGCTCCCAAGCATTAAGCT</t>
+          <t>GTCAACGCCAGTGCGGGTGT</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-20</t>
+          <t>5fl_HSTV2_F</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ATGCTTCCTCTGCTGGTATGGTTGACGCCGGATTTGAGAA</t>
+          <t>GTCAACGCCAGTGCGGGTGTGGGTCCGACGGTACTGCGCTGGTCGGCTACATTGGCGGTG</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-21</t>
+          <t>5HSTV2_F</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>TGATTGTCCAGTTGCATTTTAGTAAGCTCTTTTTGATTCTCAAATCCGGCGTCAA</t>
+          <t>TATAATTGCCGGTGGCAGTCGCAAATGTGCCCCCAGAAGGAGCACCGCCAATGTAGCCGACC</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-22</t>
+          <t>5HSTV2_R</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ACTAAAATGCAACTGGACAATCAGAAAGAGATTGCCGAGATGCAAAAT</t>
+          <t>TATAATTGCCGGTGGCAGTC</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-23</t>
+          <t>5fl_HSTV2_R</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>AATGCCAGCAATCTCTTTTTGAGTCTCATTTTGCATCTCGGCAATCTC</t>
+          <t>AGCGGTCCGTCGCCGCCTTTACCGGCGGCGGGCGCCACCTGCTACCTGATTCGTG</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-24</t>
+          <t>1HSTV2_F2</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>TCAAAAAGAGATTGCTGGCATTCAGTCGGCGACTTCACGCCAGAATACGAA</t>
+          <t>GCCGGTATCTCCGCGCTTAATGACGTGCGCGCCATCACGAATCAGGTAGCAGGTG</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-25</t>
+          <t>1HSTV2_R2</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>CATTTTGTGCATATACCTGGTCTTTCGTATTCTGGCGTGAAGT</t>
+          <t>GCCGGTATCTCCGCGCTTAA</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-26</t>
+          <t>1fl_HSTV2_R2</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>AGACCAGGTATATGCACAAAATGAGATGCTTGCTTATCAACAGAAGG</t>
+          <t>TTAAGCGCGGAGATACCGGC</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-27</t>
+          <t>2fl_HSTV2_F2</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>TTTCCATAATAGACGCAACGCGAGCAGTAGACTCCTTCTGTTGATAAGCAAGCAT</t>
+          <t>TTAAGCGCGGAGATACCGGCTGCTTAAACTGGCTGCGCACTCAAGACAAAGACTG</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-28</t>
+          <t>2HSTV2_F2</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>GCGTTGCGTCTATTATGGAAAACACCAATCTTTCCAAGCAAC</t>
+          <t>TCCGGTCATGGTGGTATGACAGGATTGCATTGGGACAGTCTTTGTCTTGAGTGCG</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-29</t>
+          <t>2HSTV2_R2</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>GAGTAAGCATTTGGCGCATAATCTCGGAAACCTGCTGTTGCTTGGAAAGATTGGTGT</t>
+          <t>TCCGGTCATGGTGGTATGAC</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-30</t>
+          <t>2fl_HSTV2_R2</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>TTATGCGCCAAATGCTTACTCAAGCTCAAACGGCTGGTCAGTATT</t>
+          <t>GTCATACCACCATGACCGGA</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-31</t>
+          <t>3fl_HSTV2_F2</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>AGTCATTTCTTTGATTTGGTCATTGGTAAAATACTGACCAGCCGTTTGA</t>
+          <t>GTCATACCACCATGACCGGAAACATGTTATTTGCGCCGGCCAGACCGCGACCATT</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-32</t>
+          <t>3HSTV2_F2</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>CAATGACCAAATCAAAGAAATGACTCGCAAGGTTAGTGCTGAGGT</t>
+          <t>GATACCACATCGCTAACATCTGCGATGAGTTCGCTAATGGTCGCGGTCTGGCCGG</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-33</t>
+          <t>3HSTV2_R2</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>TACCGCTGATTCTGCGTTTGCTGATGAACTAAGTCAACCTCAGCACTAACCTTGC</t>
+          <t>GATACCACATCGCTAACATC</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-34</t>
+          <t>3fl_HSTV2_R2</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>AAACGCAGAATCAGCGGTATGGCTCTTCTCATATTGGCGCTACTGCAAAGGATA</t>
+          <t>GATGTTAGCGATGTGGTATC</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-35</t>
+          <t>4fl_HSTV2_F2</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>CCAGAAGCAGCATCAGTGACGACATTAGAAATATCCTTTGCAGTAGCGCC</t>
+          <t>GATGTTAGCGATGTGGTATCCGGCGAGGGAGCTTCTGCCGTGGAGGCAGCGGGCA</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-36</t>
+          <t>4HSTV2_F2</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>TCACTGATGCTGCTTCTGGTGTGGTTGATATTTTTCATGGTATTG</t>
+          <t>TAGAAGGGCCGTTTTGGTGATGTTCAGGGCCGCTTTGCCCGCTGCCTCCACGGCA</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-37</t>
+          <t>4HSTV2_R2</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>CAAGTATCGGCAACAGCTTTATCAATACCATGAAAAATATCAACCACA</t>
+          <t>TAGAAGGGCCGTTTTGGTGA</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-38</t>
+          <t>4fl_HSTV2_R2</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ATAAAGCTGTTGCCGATACTTGGAACAATTTCTGGAAAGACGGTAAAGCT</t>
+          <t>ACATCACCAAAACGGCCCTT</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-39</t>
+          <t>5fl_HSTV2_F2</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>CCTAGACAAATTAGAGCCAATACCATCAGCTTTACCGTCTTTCCAGAA</t>
+          <t>ACATCACCAAAACGGCCCTTCTACGTGCCAAGGAAAAATTTTTCAAAACGAAAAATTTTTTCG</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>DMT OFF</t>
+          <t>DMT ON</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-40</t>
+          <t>5HSTV2_F2</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>GLADYSHAVA</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>GGTATTGGCTCTAATTTGTCTAGGAAATAACCGTCAGGATTGACACCCTCCCAATTGTATGTT</t>
+          <t>GAGTTTTATCGCTTCCATGACGCAGAAGTTAACACTTTCGGATATTTCTGATGAG</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-41</t>
+          <t>phiX174-V2_F1-1</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -7288,7 +7288,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>AAAAAGCCTCCAAGATTTGGAGGCATGAAAACATACAATTGGGAGGGTGT</t>
+          <t>GCAGTAGTAATTCCTGCTTTATCAAGATAATTTTTCGACTCATCAGAAATATCCGAAAGTGT</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-42</t>
+          <t>phiX174-V2_F1-2</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -7310,7 +7310,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>CTCCAAATCTTGGAGGCTTTTTTATGGTTCGTTCTTATTACCCTTCTGAATGTCACGCT</t>
+          <t>TGATAAAGCAGGAATTACTACTGCTTGTTTACGAATTAAATCGAAGTGGACTGCTGG</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-43</t>
+          <t>phiX174-V2_F1-3</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -7332,7 +7332,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>AGGTTTAAGAGCCTCGATACGCTCAAAGTCAAAATAATCAGCGTGACATTCAGAAGGG</t>
+          <t>AGGATAGGTCGAATTTTCTCATTTTCCGCCAGCAGTCCACTTCGATT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-44</t>
+          <t>phiX174-V2_F1-4</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -7354,7 +7354,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>CGTATCGAGGCTCTTAAACCTGCTATTGAGGCTTGTGGCATTTCTACTCTTTCTCAATC</t>
+          <t>AAAATGAGAAAATTCGACCTATCCTTGCGCAGCTCGAGAAGCTCTTACTTTGCGACCTTTCG</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-45</t>
+          <t>phiX174-V2_F1-5</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -7376,7 +7376,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ATGCGGTTATCCATCTGCTTATGGAAGCCAAGCATTGGGGATTGAGAAAGAGTAGAAATGCCA</t>
+          <t>TCAGTTTTTGACAGAATCGTTAGTTGATGGCGAAAGGTCGCAAAGTAAGAG</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3-46</t>
+          <t>phiX174-V2_F1-6</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -7398,7 +7398,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>AGCAGATGGATAACCGCATCAAGCTCTTGGAAGAGATTCTGT</t>
+          <t>ACTAACGATTCTGTCAAAAACTGACGCGTTGGATGAGGAGAAGTGGCTTAATATG</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-1</t>
+          <t>phiX174-V2_F1-7</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -7420,7 +7420,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>TATCGAACTCAACGCCCTGCATACGAAAAGACAGAATCTCTTCCAAGAGCTT</t>
+          <t>ATCTAAACCAGTCCTTGACGAACGTGCCAAGCATATTAAGCCACTTCTCCTCATC</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-2</t>
+          <t>phiX174-V2_F1-8</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -7442,7 +7442,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>CAGGGCGTTGAGTTCGATAATGGTGATATGTATGTTGACGGCCA</t>
+          <t>TTCGTCAAGGACTGGTTTAGATATGAGTCACATTTTGTTCATGGT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-3</t>
+          <t>phiX174-V2_F1-9</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -7464,7 +7464,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ACAGATACAAACTCATCACGAACGTCAGAAGCAGCCTTATGGCCGTCAACATACATATCA</t>
+          <t>ACGCTCTTTTAAAATGTCAACAAGAGAATCTCTACCATGAACAAAATGTGACTCAT</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-4</t>
+          <t>phiX174-V2_F1-10</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -7486,7 +7486,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>GTTCGTGATGAGTTTGTATCTGTTACTGAGAAGTTAATGGATGAATTGGCACAATGC</t>
+          <t>CTTGTTGACATTTTAAAAGAGCGTGGATTACTATCTGAGTCCGATGCTGTTC</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-5</t>
+          <t>phiX174-V2_F1-11</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -7508,7 +7508,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ATATCAAGTTGGGGGAGCACATTGTAGCATTGTGCCAATTCATCCA</t>
+          <t>CTCATGATTTCTTACCTATTAGTGGTTGAACAGCATCGGACTCAGAT</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-6</t>
+          <t>phiX174-V2_F1-12</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -7530,7 +7530,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>GTGCTCCCCCAACTTGATATTAATAACACTATAGACCACCGCC</t>
+          <t>ACCACTAATAGGTAAGAAATCATGAGTCAAGTTACTGAACAATCCGTACGTTTCC</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-7</t>
+          <t>phiX174-V2_F1-13</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -7552,7 +7552,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>AAAAACCATTTTTCGTCCCCTTCGGGGCGGTGGTCTATAGTGTTAT</t>
+          <t>AATAGAGGCCAAAGCGGTCTGGAAACGTACGGATTGTTCAG</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-8</t>
+          <t>phiX174-V2_F1-14</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -7574,7 +7574,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>AAGGGGACGAAAAATGGTTTTTAGAGAACGAGAAGACGGTTACG</t>
+          <t>GACCGCTTTGGCCTCTATTAAGCTCATTCAGGCTTCTGCCGTTTTGGATTTAACCG</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-9</t>
+          <t>phiX174-V2_F1-15</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -7596,7 +7596,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>TTAAGAGGGCGTTCAGCAGCCAGCTTGCGGCAAAACTGCGTAACCGTCTTCTCGTTCT</t>
+          <t>TGTTACTCGTCAGAAAATCGAAATCATCTTCGGTTAAATCCAAAACGGCA</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-10</t>
+          <t>phiX174-V2_F1-16</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -7618,7 +7618,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>CTGCTGAACGCCCTCTTAAGGATATTCGCGATGAGTATAATTACCC</t>
+          <t>ATTTCGATTTTCTGACGAGTAACAAAGTTTGGATTGCTACTGACCGC</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-11</t>
+          <t>phiX174-V2_F1-17</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -7640,7 +7640,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>TGAACACTCATCCTTAATACCTTTCTTTTTGGGGTAATTATACTCATCGCGAATAT</t>
+          <t>ACCATAAACGCAAGCCTCAACGCAGCGACGAGCACGAGAGCGGTCAGTAGCAATCCAA</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-12</t>
+          <t>phiX174-V2_F1-18</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -7662,7 +7662,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>GAAAGGTATTAAGGATGAGTGTTCAAGATTGCTGGAGGCCTCCACTATGAA</t>
+          <t>TGAGGCTTGCGTTTATGGTACGCTGGACTTTGTGGGATACCCTC</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-13</t>
+          <t>phiX174-V2_F1-19</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -7684,7 +7684,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ACGCTGAATAGCAAAGCCTCTACGCGATTTCATAGTGGAGGCCTCCA</t>
+          <t>AATGACGGCAGCAATAAACTCAACAGGAGCAGGAAAGCGAGGGTATCCCACAAAGTCC</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-14</t>
+          <t>phiX174-V2_F1-20</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7706,7 +7706,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>AGGCTTTGCTATTCAGCGTTTGATGAATGCAATGCGACAG</t>
+          <t>GAGTTTATTGCTGCCGTCATTGCTTATTATGTTCATCCCGTCAA</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-15</t>
+          <t>phiX174-V2_F1-21</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -7728,7 +7728,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>GTGTCAAAAACGATAAACCAACCATCAGCATGAGCCTGTCGCATTGCATTCATCA</t>
+          <t>GATGAGACAGGCCGTTTGAATGTTGACGGGATGAACATAATAAGC</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-16</t>
+          <t>phiX174-V2_F1-22</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -7750,7 +7750,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>GGTTGGTTTATCGTTTTTGACACTCTCACGTTGGCTGACGACCGATTAGAG</t>
+          <t>TCAAACGGCCTGTCTCATCATGGAAGGCGCTGAATTTACGGA</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-17</t>
+          <t>phiX174-V2_F1-23</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7772,7 +7772,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>CGCAAAGCATTGGGATTATCATAAAACGCCTCTAATCGGTCGTCAGCC</t>
+          <t>ACGCTCGACGCCATTAATAATGTTTTCCGTAAATTCAGCGCCTT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-18</t>
+          <t>phiX174-V2_F1-24</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -7794,7 +7794,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>TGATAATCCCAATGCTTTGCGTGACTATTTTCGTGATATTGGTCGTATGG</t>
+          <t>TTATTAATGGCGTCGAGCGTCCGGTTAAAGCCGCTGAATTGTTCGCGTTTACCT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-19</t>
+          <t>phiX174-V2_F1-25</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -7816,7 +7816,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ATCATTAGCCTTGCGACCCTCGGCAGCAAGAACCATACGACCAATATCACGAAAA</t>
+          <t>GTAAGAACGTCAGTGTTTCCTGCGCGTACACGCAAGGTAAACGCGAACAATTCAG</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-20</t>
+          <t>phiX174-V2_F1-26</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -7838,7 +7838,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>GGGTCGCAAGGCTAATGATTCACACGCCGACTGCTATCAGTATTTTTGT</t>
+          <t>CAGGAAACACTGACGTTCTTACTGACGCAGAAGAAAACGTGCGTCAAAAATTACGTGCGGA</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-21</t>
+          <t>phiX174-V2_F1-27</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -7860,7 +7860,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>AATGAAGACGGCCATTAGCTGTACCATACTCAGGCACACAAAAATACTGATAGCAGTCGG</t>
+          <t>AACGTTTTTTACCTTTAGACATTACATCACTCCTTCCGCACGTAATTTTTGACG</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-22</t>
+          <t>phiX174-V2_F1-28</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -7882,7 +7882,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>AGCTAATGGCCGTCTTCATTTCCATGCGGTGCACTTTAT</t>
+          <t>ATGTAATGTCTAAAGGTAAAAAACGTTCTGGCGCTCGCCCTGGTCGTCCGCAGCCGTT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-23</t>
+          <t>phiX174-V2_F1-29</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -7904,7 +7904,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>CGCTACCTGTAGGAAGTGTCCGCATAAAGTGCACCGCATGGA</t>
+          <t>GCCTTTACGCTTGCCTTTAGTACCTCGCAACGGCTGCGGACGACCAG</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-24</t>
+          <t>phiX174-V2_F1-30</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -7926,7 +7926,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>GACACTTCCTACAGGTAGCGTTGACCCTAATTTTGGTCGTCGGGTACG</t>
+          <t>CTAAAGGCAAGCGTAAAGGCGCTCGTCTTTGGTATGTAGGTGGTCAACAAT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-25</t>
+          <t>phiX174-V2_F1-31</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7948,7 +7948,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ACGTATTTTGCAAGCTATTTAACTGGCGGCGATTGCGTACCCGACGACCAAAAT</t>
+          <t>CTCAAGTAAGGGGCCGAAGCCCCTGCAATTAAAATTGTTGACCACCTACATACCA</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-26</t>
+          <t>phiX174-V2_F1-32</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -7970,7 +7970,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>CAGTTAAATAGCTTGCAAAATACGTGGCCTTATGGTTACAGTATGCCCATCG</t>
+          <t>CTTCGGCCCCTTACTTGAGGATAAATTATGTCTAATATTCAAACTGGCGC</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-27</t>
+          <t>phiX174-V2_F1-33</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -7992,7 +7992,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>AACCAGAACGTGAAAAAGCGTCCTGCGTGTAGCGAACTGCGATGGGCATACTGTAACCA</t>
+          <t>AGATGGGAAAGGTCATGCGGCATACGCTCGGCGCCAGTTTGAATATTAGACA</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-28</t>
+          <t>phiX174-V2_F1-34</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -8014,7 +8014,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>CGCTTTTTCACGTTCTGGTTGGTTGTGGCCTGTTGATGCTAAAGGTGAGC</t>
+          <t>CGCATGACCTTTCCCATCTTGGCTTCCTTGCTGGTCAGAT</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-29</t>
+          <t>phiX174-V2_F1-35</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -8036,7 +8036,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ACAGCCATATAACTGGTAGCTTTAAGCGGCTCACCTTTAGCATCAACAG</t>
+          <t>GATAACCGGAGTAGTTGAAATGGTAATAAGACGACCAATCTGACCAGCAAGGAAGC</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-30</t>
+          <t>phiX174-V2_F1-36</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -8058,7 +8058,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>AAGCTACCAGTTATATGGCTGTTGGTTTCTATGTGGCTAAATACGTTAACAAAAAG</t>
+          <t>CCATTTCAACTACTCCGGTTATCGCTGGCGACTCCTTCGAGATGGAC</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-31</t>
+          <t>phiX174-V2_F1-37</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -8080,7 +8080,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>GCAGCAAGGTCCATATCTGACTTTTTGTTAACGTATTTAGCCACA</t>
+          <t>AATGGAGAAAGACGGAGAGCGCCAACGGCGTCCATCTCGAAGGAGTCG</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -8090,7 +8090,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-32</t>
+          <t>phiX174-V2_F1-38</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -8102,7 +8102,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>TCAGATATGGACCTTGCTGCTAAAGGTCTAGGAGCTAAAGAATGGAACAACTCAC</t>
+          <t>GCTCTCCGTCTTTCTCCATTGCGTCGTGGCCTTGCTATTGACTCTACT</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-33</t>
+          <t>phiX174-V2_F1-39</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -8124,7 +8124,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>GAAGTAGCGACAGCTTGGTTTTTAGTGAGTTGTTCCATTCTTTAGCT</t>
+          <t>GACGATGAGGGACATAAAAAGTAAAAATGTCTACAGTAGAGTCAATAGCAAGGCC</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-34</t>
+          <t>phiX174-V2_F1-40</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -8146,7 +8146,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ACCAAGCTGTCGCTACTTCCCAAGAAGCTGTTCAGAATCAGAATGAGCC</t>
+          <t>TTACTTTTTATGTCCCTCATCGTCACGTTTATGGTGAACAGTGGATT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-35</t>
+          <t>phiX174-V2_F1-41</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -8168,7 +8168,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ATTGTGAGCATTTTCATCCCGAAGTTGCGGCTCATTCTGATTCTGAACAG</t>
+          <t>GTGGCATTAACACCATCCTTCATGAACTTAATCCACTGTTCACCATAAACG</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-36</t>
+          <t>phiX174-V2_F1-42</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -8190,7 +8190,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>CGGGATGAAAATGCTCACAATGACAAATCTGTCCACGGAGTGCTTAATCCAACTTAC</t>
+          <t>GAAGGATGGTGTTAATGCCACTCCTCTCCCGACTGTTAACACTACTGGT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-37</t>
+          <t>phiX174-V2_F1-43</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -8212,7 +8212,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>TATCTGGTTGAACGGCGTCGCGTCGTAACCCAGCTTGGTAAGTTGGATTAAGCACTCCG</t>
+          <t>GAAAAGCGGCATGGTCAATATAACCAGTAGTGTTAACAGTCGG</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-38</t>
+          <t>phiX174-V2_F1-44</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -8234,7 +8234,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>GACGCCGTTCAACCAGATATTGAAGCAGAACGCAAAAAGA</t>
+          <t>ATATTGACCATGCCGCTTTTCTTGGCACGATTAACCCTGAT</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-39</t>
+          <t>phiX174-V2_F1-45</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -8256,7 +8256,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>AGTAACTTTTCCCAGCCTCAATCTCATCTCTCTTTTTGCGTTCTGCTTCAA</t>
+          <t>CAAATAACCCTGAAACAAATGCTTAGGGATTTTATTGGTATCAGGGTTAATCGTGCCAA</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-40</t>
+          <t>phiX174-V2_F1-46</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -8278,7 +8278,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>TTGAGGCTGGGAAAAGTTACTGTAGCCGACGTTTTGGCGGCGCAACCTGTGACGACAAAT</t>
+          <t>AAGCATTTGTTTCAGGGTTATTTGAATATCTATAACAACTATTTTAAAGCGCCGTGG</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-41</t>
+          <t>phiX174-V2_F1-47</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -8300,7 +8300,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>TTTTATCGAAGCGCGCATAAATTTGAGCAGATTTGTCGTCACAGGTTGC</t>
+          <t>CCACGGCGCTTTAAAATAGTT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-42</t>
+          <t>phiX174-V2_F1-48</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -8322,7 +8322,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>TTTATGCGCGCTTCGATAAAAATGATTGGCGTATCCAACCTGCA</t>
+          <t>ACTATTTTAAAGCGCCGTGGATGCCTGACCGTACCGAGGCTAACCCTAATGAGCTT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-43</t>
+          <t>phiX174-V2_F2-1</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -8344,7 +8344,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>TGCAGGTTGGATACGCCAATCAT</t>
+          <t>CCATAACGAGCATCATCTTGATTAAGCTCATTAGGGTTAGCCTC</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4-44</t>
+          <t>phiX174-V2_F2-2</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -8366,7 +8366,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>CGACGGGCCCGGGATCCGATGAGTTTTATCGCTTCCATGAC</t>
+          <t>AATCAAGATGATGCTCGTTATGGTTTCCGTTGCTGCCATCTCAAAAACATTTGGA</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1_P-F_(pTZ/F)</t>
+          <t>phiX174-V2_F2-3</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -8388,7 +8388,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>CCTCGCGAATGCATCTAGATCCACGGCGCTTTAAAATAGT</t>
+          <t>GAAAGCTCAGTCTCAGGAGGAAGCGGAGCAGTCCAAATGTTTTTGAGATGGCA</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1_P-R_(pTZ/F)</t>
+          <t>phiX174-V2_F2-4</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -8410,7 +8410,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>CGACGGGCCCGGGATCCGATACTATTTTAAAGCGCCGTGG</t>
+          <t>CCTCCTGAGACTGAGCTTTCTCGCCAAATGACGACTTCTACCACATCT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2_P-F_(pTZ/F)</t>
+          <t>phiX174-V2_F2-5</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -8432,7 +8432,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>CCTCGCGAATGCATCTAGATCACACAGTCCTTGACGGTA</t>
+          <t>AGCATAAGCAGCTTGCAGACCCATAATGTCAATAGATGTGGTAGAAGTCGTCATT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -8442,7 +8442,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2_P-R_(pTZ/F)</t>
+          <t>phiX174-V2_F2-6</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -8454,7 +8454,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>CGACGGGCCCGGGATCCGATTACCGTCAAGGACTGTGTG</t>
+          <t>TCTGCAAGCTGCTTATGCTAATTTGCATACTGACCAAGAACGTGATTACTTCATG</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3_P-F_(pTZ/F)</t>
+          <t>phiX174-V2_F2-7</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -8476,7 +8476,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>CCTCGCGAATGCATCTAGATATGCGGTTATCCATCTGCT</t>
+          <t>TTTACCTCCAAATGAAGAAATAACATCATGGTAACGCTGCATGAAGTAATCACGTTCTTGGT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3_P-R_(pTZ/F)</t>
+          <t>phiX174-V2_F2-8</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -8498,7 +8498,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>CGACGGGCCCGGGATCCGATAGCAGATGGATAACCGCAT</t>
+          <t>GATGTTATTTCTTCATTTGGAGGTAAAACCTCTTATGACGCTGACAACCGTC</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4_P-F_(pTZ/F)</t>
+          <t>phiX174-V2_F2-9</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -8520,7 +8520,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>CCTCGCGAATGCATCTAGATTGCAGGTTGGATACGC</t>
+          <t>AGAGATTAGAGCGCATGACAAGTAAAGGACGGTTGTCAGCGTCATA</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -8530,7 +8530,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4_P-R_(pTZ/F)</t>
+          <t>phiX174-V2_F2-10</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -8542,7 +8542,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>GATAAAAATGATTGGCGTATCCAACCTGCAGAGTTTTATCGCTTCCATGAC</t>
+          <t>TTGTCATGCGCTCTAATCTCTGGGCATCTGGCTATGATGTTGATGGA</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1_P-F_T</t>
+          <t>phiX174-V2_F2-11</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -8564,7 +8564,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>GCCTCGGTACGGTCAGGCATCCACGGCGCTTTAAAATAGT</t>
+          <t>AACTGGCCTAACGACGTTTGGTCAGTTCCATCAACATCATAGCCAGAT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -8574,7 +8574,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>phiX174-V2_F1_P-R_T</t>
+          <t>phiX174-V2_F2-12</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -8586,7 +8586,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>TTATTTGAATATCTATAACAACTATTTTAAAGCGCCGTGG</t>
+          <t>AAACGTCGTTAGGCCAGTTTTCTGGTCGTGTTCAACAGACC</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2_P-F_T</t>
+          <t>phiX174-V2_F2-13</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -8608,7 +8608,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ACGGGGAAGGACGTCAATAGTCACACAGTCCTTGACGGTA</t>
+          <t>CAGGAACAAAGAAACGCGGCACAGAATGTTTATAGGTCTGTTGAACACGACCA</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>phiX174-V2_F2_P-R_T</t>
+          <t>phiX174-V2_F2-14</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -8630,7 +8630,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>TCGCCATGATGGTGGTTATTATACCGTCAAGGACTGTGTG</t>
+          <t>CCGCGTTTCTTTGTTCCTGAGCATGGCACTATGTTTACTCTTGCGCTTGTTCGT</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -8640,7 +8640,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3_P-F_T</t>
+          <t>phiX174-V2_F2-15</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -8652,7 +8652,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>AGAATCTCTTCCAAGAGCTTGATGCGGTTATCCATCTGCT</t>
+          <t>ATCTCTTTAGTCGCAGTAGGCGGAAAACGAACAAGCGCAAGAGTA</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>phiX174-V2_F3_P-R_T</t>
+          <t>phiX174-V2_F2-16</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -8674,7 +8674,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>CCCCAATGCTTGGCTTCCATAAGCAGATGGATAACCGCAT</t>
+          <t>GCCTACTGCGACTAAAGAGATTCAGTACCTTAACGCTAAAGGTGCTTTGACTTAT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4_P-F_T</t>
+          <t>phiX174-V2_F2-17</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -8696,7 +8696,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>AACTTCTGCGTCATGGAAGCGATAAAACTCTGCAGGTTGGATACGC</t>
+          <t>TACAAAACAGGGTCGCCAGCAATATCGGTATAAGTCAAAGCACCTTTAGCG</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>phiX174-V2_F4_P-R_T</t>
+          <t>phiX174-V2_F2-18</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -8718,158 +8718,158 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>GCGTTAACCGTGCGGAAGCAGAGGCAGTCAGTATGCTGGT</t>
+          <t>CTGGCGACCCTGTTTTGTATGGCAACTTGCCGCCGCGTGAAATTTCTATGAAGGA</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>P177A_F</t>
+          <t>phiX174-V2_F2-19</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>ZKF</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>GCCTCTGCTTCCGCACGGTTAACGCACGAGACCAGGTCCT</t>
+          <t>TCTTAAACTTCTTAGACGAATCACCAGAACGGAAAACATCCTTCATAGAAATTTCACGCG</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>P177A_R</t>
+          <t>phiX174-V2_F2-20</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>ZKF</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ATTCTGAGAAATTGGGTCAGCAGGAAGGTAAAGGTTGGAA</t>
+          <t>GGTGATTCGTCTAAGAAGTTTAAGATTGCTGAGGGTCAGTGGTATCGT</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>S291L_F</t>
+          <t>phiX174-V2_F2-21</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>ZKF</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>TCCTGCTGACCCAATTTCTCAGAATGAACACGACCGTGAT</t>
+          <t>AGAAACATACGAAGGCGCATAACGATACCACTGACCCTCA</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>S291L_R</t>
+          <t>phiX174-V2_F2-22</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>ZKF</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>TGGCGGAAAACTACGAATTGCGTGAAAATGAAGGCTCGTG</t>
+          <t>TGCGCCTTCGTATGTTTCTCCTGCTTATCACCTTCTTGAAGGCTTCCCATTCAT</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>D50Y_F</t>
+          <t>phiX174-V2_F2-23</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>ZKF</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>TCACGCAATTCGTAGTTTTCCGCCAGGATGTCGAGGGCAT</t>
+          <t>ACGCGTTCTTGCAAATCACCAGAAGGCGGTTCCTGAATGAATGGGAAGCCTTCAAGA</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>D50Y_R</t>
+          <t>phiX174-V2_F2-24</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>ZKF</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>GCCCTTGACTGCAAGTGCAAAGGTTGAGGAATCCGCTTCAGACTCAAACGCAGACG</t>
+          <t>GTGATTTGCAAGAACGCGTACTTATTCGCCACCATGATTATG</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>KITV-S1-5-F</t>
+          <t>phiX174-V2_F2-25</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>